--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2065.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2065.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162640192561479</v>
+        <v>1.307710409164429</v>
       </c>
       <c r="B1">
-        <v>2.838054528159387</v>
+        <v>3.698065042495728</v>
       </c>
       <c r="C1">
-        <v>4.562128499087202</v>
+        <v>4.104722023010254</v>
       </c>
       <c r="D1">
-        <v>3.018872670794519</v>
+        <v>2.732076406478882</v>
       </c>
       <c r="E1">
-        <v>1.206850917811902</v>
+        <v>1.051737427711487</v>
       </c>
     </row>
   </sheetData>
